--- a/database/seeders/excel/role.xlsx
+++ b/database/seeders/excel/role.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\ifics_be\database\seeders\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629C1F9B-2FC1-4154-B401-905F7C97CB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC08E485-0134-4891-8AF7-66C47E0ECF44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -103,14 +103,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -493,12 +487,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B16" s="1"/>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C27" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/database/seeders/excel/role.xlsx
+++ b/database/seeders/excel/role.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\ifics_be\database\seeders\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmadnajmibinsidek/Developer/niise-helpdesk/backend/database/seeders/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC08E485-0134-4891-8AF7-66C47E0ECF44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B767B94D-72FF-0041-8563-F46D5670E8AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1920" yWindow="1920" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>JIM</t>
   </si>
@@ -68,6 +68,15 @@
   </si>
   <si>
     <t>FRONTLINER</t>
+  </si>
+  <si>
+    <t>Super Admin</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>SUPER_ADMIN</t>
   </si>
 </sst>
 </file>
@@ -417,21 +426,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.6640625" customWidth="1"/>
-    <col min="2" max="2" width="46.109375" customWidth="1"/>
+    <col min="2" max="2" width="46.1640625" customWidth="1"/>
     <col min="3" max="3" width="43" customWidth="1"/>
-    <col min="4" max="4" width="81.88671875" customWidth="1"/>
+    <col min="4" max="4" width="81.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -445,7 +454,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -459,7 +468,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -473,7 +482,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -485,6 +494,20 @@
       </c>
       <c r="D4" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/database/seeders/excel/role.xlsx
+++ b/database/seeders/excel/role.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmadnajmibinsidek/Developer/niise-helpdesk/backend/database/seeders/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B767B94D-72FF-0041-8563-F46D5670E8AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2AFD08-9303-4741-ADCB-982033C39CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1920" yWindow="1920" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>JIM</t>
   </si>
@@ -77,6 +77,15 @@
   </si>
   <si>
     <t>SUPER_ADMIN</t>
+  </si>
+  <si>
+    <t>BTMR_LEVEL_2</t>
+  </si>
+  <si>
+    <t>Pentadbir Helpdesk Sistem Second Level (BTMR)</t>
+  </si>
+  <si>
+    <t>System Helpdesk Administrator Second Level (BTMR)</t>
   </si>
 </sst>
 </file>
@@ -426,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -510,6 +519,20 @@
         <v>17</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
